--- a/data/trans_orig/P65-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P65-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>17502</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11571</v>
+        <v>10198</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28242</v>
+        <v>26489</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05780755340359563</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03821702744694592</v>
+        <v>0.03368266039826476</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0932825366629333</v>
+        <v>0.08749254367720467</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6243</v>
+        <v>6230</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01457293129238452</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05019015344098965</v>
+        <v>0.05008360413171259</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -786,19 +786,19 @@
         <v>19315</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12649</v>
+        <v>11705</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30915</v>
+        <v>29049</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04521757744442356</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02961195688802472</v>
+        <v>0.02740267949572378</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07237507018007115</v>
+        <v>0.06800639825573521</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>21049</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13599</v>
+        <v>13220</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32442</v>
+        <v>31623</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06952377845989231</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0449175970922014</v>
+        <v>0.04366635618614489</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1071524030886027</v>
+        <v>0.1044483713643441</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -836,19 +836,19 @@
         <v>6007</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11904</v>
+        <v>11991</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04829157007520955</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01650720721848418</v>
+        <v>0.01647863975899636</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09570500901932488</v>
+        <v>0.09640436844542476</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>26</v>
@@ -857,19 +857,19 @@
         <v>27056</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17924</v>
+        <v>18460</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38377</v>
+        <v>40778</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0633409328590753</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04196152322432031</v>
+        <v>0.04321623840977756</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08984471523344477</v>
+        <v>0.09546529680848979</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>12837</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7079</v>
+        <v>7196</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21468</v>
+        <v>20827</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04239914978480325</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02338090875968157</v>
+        <v>0.02376734499902814</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07090805737689644</v>
+        <v>0.06878956620188757</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -907,19 +907,19 @@
         <v>9432</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4930</v>
+        <v>4548</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16803</v>
+        <v>16574</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07582621859855382</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03963268095412111</v>
+        <v>0.03656597842169835</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1350865755021932</v>
+        <v>0.1332502947379317</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>22</v>
@@ -928,19 +928,19 @@
         <v>22269</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14412</v>
+        <v>14235</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>33983</v>
+        <v>32478</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05213315397404263</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03374052717657437</v>
+        <v>0.03332525324064201</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07955919316467121</v>
+        <v>0.07603556000157924</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>75799</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>60746</v>
+        <v>60227</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>91607</v>
+        <v>91232</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2503603713902796</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2006396766212878</v>
+        <v>0.1989270180845817</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3025714726484836</v>
+        <v>0.301334480692987</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -978,19 +978,19 @@
         <v>17137</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10667</v>
+        <v>10551</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25444</v>
+        <v>25138</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1377720882477449</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08576082114189296</v>
+        <v>0.08482555709433716</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2045560743370932</v>
+        <v>0.2020959458088936</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>88</v>
@@ -999,19 +999,19 @@
         <v>92936</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>74487</v>
+        <v>75333</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>111220</v>
+        <v>109913</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.217574522715511</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1743821552435606</v>
+        <v>0.1763628234159213</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2603794100016245</v>
+        <v>0.2573199230991896</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>108125</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>91771</v>
+        <v>90828</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>126001</v>
+        <v>124672</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3571302327638385</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3031150475883017</v>
+        <v>0.3000005397170272</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4161723037757822</v>
+        <v>0.4117831323541215</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>40</v>
@@ -1049,19 +1049,19 @@
         <v>42643</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>33804</v>
+        <v>32674</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>54953</v>
+        <v>54007</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3428242783151116</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.271764472627429</v>
+        <v>0.2626861658599741</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4417947921335962</v>
+        <v>0.4341856824722753</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>144</v>
@@ -1070,19 +1070,19 @@
         <v>150768</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>130886</v>
+        <v>129185</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>173257</v>
+        <v>171089</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3529643209601182</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3064197157048917</v>
+        <v>0.3024358052182498</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4056133910714314</v>
+        <v>0.4005381807588241</v>
       </c>
     </row>
     <row r="9">
@@ -1099,19 +1099,19 @@
         <v>67449</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>53013</v>
+        <v>54576</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>81295</v>
+        <v>84003</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2227789141975907</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1750990340577301</v>
+        <v>0.1802612507932823</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2685120555718239</v>
+        <v>0.2774566342782522</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>44</v>
@@ -1120,19 +1120,19 @@
         <v>47355</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>36185</v>
+        <v>36832</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>58284</v>
+        <v>58702</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3807129134709956</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2909053873909609</v>
+        <v>0.2961064799917817</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4685698038480882</v>
+        <v>0.4719378224784629</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>110</v>
@@ -1141,19 +1141,19 @@
         <v>114804</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>96923</v>
+        <v>97428</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>134789</v>
+        <v>134460</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2687694920468293</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2269068499609808</v>
+        <v>0.2280902173035908</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3155567268208268</v>
+        <v>0.3147872495341082</v>
       </c>
     </row>
     <row r="10">
@@ -1245,19 +1245,19 @@
         <v>51941</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>37286</v>
+        <v>38309</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>66076</v>
+        <v>67245</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05827627128386514</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04183377520890158</v>
+        <v>0.0429814344361398</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07413575475664355</v>
+        <v>0.07544776252204348</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -1266,19 +1266,19 @@
         <v>26690</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17332</v>
+        <v>17405</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37513</v>
+        <v>37220</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05791778442967363</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03761133771225584</v>
+        <v>0.03776892979571736</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08140399506579138</v>
+        <v>0.08076805866649682</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>77</v>
@@ -1287,19 +1287,19 @@
         <v>78630</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>63379</v>
+        <v>63576</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>96920</v>
+        <v>98028</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05815409250462548</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04687423690728382</v>
+        <v>0.04701985773658576</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07168104211257166</v>
+        <v>0.07250071782439692</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>60672</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>46329</v>
+        <v>46376</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>77498</v>
+        <v>79687</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06807269536792722</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05198042711766626</v>
+        <v>0.05203318333988231</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08695101114778393</v>
+        <v>0.08940763379531158</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>26</v>
@@ -1337,19 +1337,19 @@
         <v>27112</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18388</v>
+        <v>17996</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>38144</v>
+        <v>39065</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05883440452525748</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03990337968910905</v>
+        <v>0.03905127802054286</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08277443246745804</v>
+        <v>0.08477325460100067</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>82</v>
@@ -1358,19 +1358,19 @@
         <v>87784</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>70284</v>
+        <v>70431</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>109609</v>
+        <v>107489</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06492411939025597</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05198146456852972</v>
+        <v>0.05208994040135665</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08106566935130603</v>
+        <v>0.07949777719819022</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>60648</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46061</v>
+        <v>47422</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>77507</v>
+        <v>79047</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0680453954978497</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05167909651184435</v>
+        <v>0.05320635937591051</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08696106454731208</v>
+        <v>0.08868953585416428</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -1408,19 +1408,19 @@
         <v>29029</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20484</v>
+        <v>20151</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40934</v>
+        <v>40571</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06299409676116681</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04445151371667255</v>
+        <v>0.04372945580413108</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08882962969564497</v>
+        <v>0.08804172619693824</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>82</v>
@@ -1429,19 +1429,19 @@
         <v>89677</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>72693</v>
+        <v>72648</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>111315</v>
+        <v>111061</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06632382187246633</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05376268753679656</v>
+        <v>0.05372978678088235</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08232716397987705</v>
+        <v>0.08213968145368027</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>233028</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>206582</v>
+        <v>205471</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>258953</v>
+        <v>260741</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2614531158557106</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2317807655279073</v>
+        <v>0.2305341008566447</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2905405130866706</v>
+        <v>0.2925461383893802</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>76</v>
@@ -1479,19 +1479,19 @@
         <v>75305</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>60335</v>
+        <v>61220</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>91767</v>
+        <v>91597</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.163415522296267</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1309289315985177</v>
+        <v>0.132850612952174</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1991390847472105</v>
+        <v>0.1987704562208969</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>305</v>
@@ -1500,19 +1500,19 @@
         <v>308333</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>280073</v>
+        <v>280619</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>338715</v>
+        <v>342530</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2280401374978266</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2071393180211764</v>
+        <v>0.2075428247269407</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2505102720012142</v>
+        <v>0.2533317919165271</v>
       </c>
     </row>
     <row r="15">
@@ -1529,19 +1529,19 @@
         <v>370894</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>340927</v>
+        <v>343316</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>402734</v>
+        <v>402061</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4161354087306031</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3825132197527834</v>
+        <v>0.3851934292183025</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4518599665946574</v>
+        <v>0.4511048063027571</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>190</v>
@@ -1550,19 +1550,19 @@
         <v>196081</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>174855</v>
+        <v>175847</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>220332</v>
+        <v>218086</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4255040076897834</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3794425227051664</v>
+        <v>0.3815968704855289</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4781305326691307</v>
+        <v>0.4732554003497678</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>546</v>
@@ -1571,19 +1571,19 @@
         <v>566974</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>529844</v>
+        <v>528386</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>604116</v>
+        <v>602927</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4193283960623146</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3918668667469215</v>
+        <v>0.3907886637342201</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4467977698037022</v>
+        <v>0.4459188675040155</v>
       </c>
     </row>
     <row r="16">
@@ -1600,19 +1600,19 @@
         <v>114099</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>95765</v>
+        <v>94051</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>136056</v>
+        <v>135170</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1280171132640443</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1074460225920737</v>
+        <v>0.10552348502123</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1526523330845216</v>
+        <v>0.1516582509372723</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>93</v>
@@ -1621,19 +1621,19 @@
         <v>106603</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>88821</v>
+        <v>88499</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>126926</v>
+        <v>126220</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2313341842978517</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1927450858223439</v>
+        <v>0.1920457503861245</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2754346396795566</v>
+        <v>0.2739024799007737</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>203</v>
@@ -1642,19 +1642,19 @@
         <v>220703</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>194114</v>
+        <v>190010</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>248852</v>
+        <v>246870</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1632294326725111</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1435647453809548</v>
+        <v>0.1405294091261107</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1840484961861676</v>
+        <v>0.1825828423892004</v>
       </c>
     </row>
     <row r="17">
@@ -1746,19 +1746,19 @@
         <v>43717</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>31799</v>
+        <v>31846</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>58726</v>
+        <v>59700</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1432396079254102</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1041880190175504</v>
+        <v>0.1043436696084665</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1924160023929726</v>
+        <v>0.1956053195736856</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>24</v>
@@ -1767,19 +1767,19 @@
         <v>24729</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16066</v>
+        <v>15945</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>34983</v>
+        <v>34259</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1250260910708117</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08122773013671765</v>
+        <v>0.08061380822568463</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1768671864002753</v>
+        <v>0.1732092640498488</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>64</v>
@@ -1788,19 +1788,19 @@
         <v>68446</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>54068</v>
+        <v>55227</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>86312</v>
+        <v>85845</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1360776100516067</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1074915697895897</v>
+        <v>0.1097964443557758</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1715953272364012</v>
+        <v>0.1706671859067464</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>37058</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26528</v>
+        <v>26971</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>48975</v>
+        <v>50749</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1214185069739952</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0869170742455868</v>
+        <v>0.08837091288008334</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1604674114543432</v>
+        <v>0.1662779100004667</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -1838,19 +1838,19 @@
         <v>23261</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15250</v>
+        <v>15069</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32910</v>
+        <v>32424</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1176030600541074</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07710194654161358</v>
+        <v>0.07618926987629399</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1663900064534331</v>
+        <v>0.1639321771505475</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>57</v>
@@ -1859,19 +1859,19 @@
         <v>60318</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>46369</v>
+        <v>45525</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>77200</v>
+        <v>75072</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1199181804337671</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09218556205991107</v>
+        <v>0.09050780570850774</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1534800044239094</v>
+        <v>0.1492508720114338</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>31415</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>21747</v>
+        <v>20406</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>43478</v>
+        <v>42592</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1029301177361509</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07125524993746407</v>
+        <v>0.06686016185245769</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1424549762046436</v>
+        <v>0.1395509608941872</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -1909,19 +1909,19 @@
         <v>20214</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12954</v>
+        <v>13079</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>30577</v>
+        <v>30352</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1021998414897486</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06549345927299847</v>
+        <v>0.06612514598466387</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.154594871285788</v>
+        <v>0.1534560762902337</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>49</v>
@@ -1930,19 +1930,19 @@
         <v>51629</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>37718</v>
+        <v>38391</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>66320</v>
+        <v>66963</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1026429553519845</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07498764734716115</v>
+        <v>0.07632460566810025</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1318510276596101</v>
+        <v>0.1331283503564433</v>
       </c>
     </row>
     <row r="21">
@@ -1959,19 +1959,19 @@
         <v>62095</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>49685</v>
+        <v>47911</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>78071</v>
+        <v>75840</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2034546941991183</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1627913802556157</v>
+        <v>0.1569813054305959</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2558000280022161</v>
+        <v>0.2484885148545844</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>46</v>
@@ -1980,19 +1980,19 @@
         <v>47293</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>35560</v>
+        <v>35271</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>60071</v>
+        <v>60017</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2391082191658533</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1797880406456927</v>
+        <v>0.1783243953337595</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.303712593187568</v>
+        <v>0.303436211351122</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>107</v>
@@ -2001,19 +2001,19 @@
         <v>109389</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>90074</v>
+        <v>91943</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>128929</v>
+        <v>131304</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2174745274934713</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1790753483054409</v>
+        <v>0.1827913543688339</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.25632253607255</v>
+        <v>0.2610443750680789</v>
       </c>
     </row>
     <row r="22">
@@ -2030,19 +2030,19 @@
         <v>93454</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>76367</v>
+        <v>75778</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>110293</v>
+        <v>108696</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.306200941959925</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2502158419962431</v>
+        <v>0.248284152799653</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3613742214288998</v>
+        <v>0.356140780632794</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>60</v>
@@ -2051,19 +2051,19 @@
         <v>63567</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>50858</v>
+        <v>50869</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>77352</v>
+        <v>77919</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3213847678845922</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2571291659868642</v>
+        <v>0.2571858387995959</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3910836969138396</v>
+        <v>0.3939458883815513</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>150</v>
@@ -2072,19 +2072,19 @@
         <v>157021</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>136339</v>
+        <v>138395</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>179126</v>
+        <v>179573</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3121715916623856</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2710552122173792</v>
+        <v>0.2751413035305155</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3561196710924638</v>
+        <v>0.3570084346137522</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>37466</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>26800</v>
+        <v>26493</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>53288</v>
+        <v>51424</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1227561312054003</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08780949813256708</v>
+        <v>0.08680435525403653</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1745972033683197</v>
+        <v>0.1684904878887438</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>18</v>
@@ -2122,19 +2122,19 @@
         <v>18726</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>11681</v>
+        <v>11637</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>27932</v>
+        <v>29046</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.09467802033488677</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05905693037940882</v>
+        <v>0.05883329351292226</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1412212663109727</v>
+        <v>0.1468521023345518</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>52</v>
@@ -2143,19 +2143,19 @@
         <v>56192</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>43110</v>
+        <v>43062</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>73373</v>
+        <v>72990</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1117151350067849</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08570574954824706</v>
+        <v>0.0856114924158813</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1458716128431631</v>
+        <v>0.1451109216012597</v>
       </c>
     </row>
     <row r="24">
@@ -2247,19 +2247,19 @@
         <v>113160</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>93576</v>
+        <v>92498</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>134748</v>
+        <v>136903</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07547778625824053</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06241566039043118</v>
+        <v>0.06169630471186634</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08987717600189844</v>
+        <v>0.09131418903357975</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>53</v>
@@ -2268,19 +2268,19 @@
         <v>53231</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>40997</v>
+        <v>41003</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>71290</v>
+        <v>69563</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06798406087643157</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05235931057872594</v>
+        <v>0.05236661133935292</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09104807106180261</v>
+        <v>0.08884252254880741</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>161</v>
@@ -2289,19 +2289,19 @@
         <v>166391</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>143159</v>
+        <v>141691</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>193199</v>
+        <v>191372</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07290682565299088</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0627274524206589</v>
+        <v>0.06208427604522267</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08465318535166022</v>
+        <v>0.08385262674103683</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>118779</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>100427</v>
+        <v>98108</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>142725</v>
+        <v>143652</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07922545166869011</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06698502176952693</v>
+        <v>0.06543808961272132</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09519750252393397</v>
+        <v>0.09581629494190801</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>55</v>
@@ -2339,19 +2339,19 @@
         <v>56380</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>43823</v>
+        <v>44057</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>73073</v>
+        <v>72776</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07200491816067331</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05596834721400939</v>
+        <v>0.05626770650211753</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09332502015319877</v>
+        <v>0.09294512116834734</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>165</v>
@@ -2360,19 +2360,19 @@
         <v>175158</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>152049</v>
+        <v>150350</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>203085</v>
+        <v>203301</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07674821821641285</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06662248466652375</v>
+        <v>0.06587807660061673</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08898487895755888</v>
+        <v>0.08907934255354806</v>
       </c>
     </row>
     <row r="27">
@@ -2389,19 +2389,19 @@
         <v>104899</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>84815</v>
+        <v>86418</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>128199</v>
+        <v>126745</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.06996789457709272</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0565716172979796</v>
+        <v>0.05764103990642182</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08550893812539707</v>
+        <v>0.08453912685681705</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>56</v>
@@ -2410,19 +2410,19 @@
         <v>58675</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>44863</v>
+        <v>44851</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>73994</v>
+        <v>74229</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.07493621028594234</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.0572959826294453</v>
+        <v>0.057281594033817</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.09450148771002091</v>
+        <v>0.09480157136421379</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>153</v>
@@ -2431,19 +2431,19 @@
         <v>163574</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>139087</v>
+        <v>140040</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>189454</v>
+        <v>192653</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.07167243314917635</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.06094330850971323</v>
+        <v>0.06136059043976967</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.08301218077251937</v>
+        <v>0.08441380715916913</v>
       </c>
     </row>
     <row r="28">
@@ -2460,19 +2460,19 @@
         <v>370923</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>337466</v>
+        <v>336190</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>407852</v>
+        <v>405365</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2474061596318561</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2250902142983409</v>
+        <v>0.224239439335159</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2720379460050763</v>
+        <v>0.2703793491532644</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>140</v>
@@ -2481,19 +2481,19 @@
         <v>139735</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>120904</v>
+        <v>120542</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>161737</v>
+        <v>162520</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1784622944087193</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1544120151934696</v>
+        <v>0.153949828354141</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2065613642033876</v>
+        <v>0.2075621186478608</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>500</v>
@@ -2502,19 +2502,19 @@
         <v>510658</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>470264</v>
+        <v>471906</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>552379</v>
+        <v>551899</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2237527759766975</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2060532458156124</v>
+        <v>0.2067730571603392</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2420332156493292</v>
+        <v>0.2418229819916201</v>
       </c>
     </row>
     <row r="29">
@@ -2531,19 +2531,19 @@
         <v>572473</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>535444</v>
+        <v>531031</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>611275</v>
+        <v>608248</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3818401794730417</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3571418735674443</v>
+        <v>0.3541983032856437</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4077215288635487</v>
+        <v>0.4057022994152651</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>290</v>
@@ -2552,19 +2552,19 @@
         <v>302290</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>275405</v>
+        <v>275456</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>329678</v>
+        <v>330539</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3860684344642973</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3517322258927956</v>
+        <v>0.3517973659050466</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4210467201789942</v>
+        <v>0.4221463029529139</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>840</v>
@@ -2573,19 +2573,19 @@
         <v>874763</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>825099</v>
+        <v>828516</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>921035</v>
+        <v>922751</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3832908167005357</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3615300740581817</v>
+        <v>0.3630271052703091</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.403565687523477</v>
+        <v>0.404317794410554</v>
       </c>
     </row>
     <row r="30">
@@ -2602,19 +2602,19 @@
         <v>219014</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>191736</v>
+        <v>192192</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>246110</v>
+        <v>248358</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1460825283910789</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1278879152464593</v>
+        <v>0.1281926093034718</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.164155961098303</v>
+        <v>0.1656551052706032</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>155</v>
@@ -2623,19 +2623,19 @@
         <v>172685</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>149259</v>
+        <v>149453</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>198074</v>
+        <v>197210</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2205440818039362</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1906251388713717</v>
+        <v>0.1908727610501727</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.252968919472262</v>
+        <v>0.2518656539796661</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>365</v>
@@ -2644,19 +2644,19 @@
         <v>391699</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>354755</v>
+        <v>356746</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>431125</v>
+        <v>432611</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1716289303041867</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1554415028683845</v>
+        <v>0.1563136907661438</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1889040268554171</v>
+        <v>0.1895550151137092</v>
       </c>
     </row>
     <row r="31">
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4839</v>
+        <v>5717</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006022356815637958</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02782059471673244</v>
+        <v>0.03287080373545732</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7016</v>
+        <v>7082</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01533117461999524</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05492148344488122</v>
+        <v>0.05544198038668159</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -3032,16 +3032,16 @@
         <v>928</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8350</v>
+        <v>8146</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00996425956759287</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00307700693059721</v>
+        <v>0.003076947570017533</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0276783922285068</v>
+        <v>0.02700484023055515</v>
       </c>
     </row>
     <row r="5">
@@ -3058,19 +3058,19 @@
         <v>5946</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2081</v>
+        <v>2183</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12728</v>
+        <v>11951</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03418984596655242</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0119641708983018</v>
+        <v>0.01255167515886941</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07317962681530069</v>
+        <v>0.06871754061437124</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -3079,19 +3079,19 @@
         <v>11605</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6283</v>
+        <v>6062</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20177</v>
+        <v>19046</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09084365049347146</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04918323148894252</v>
+        <v>0.04745838138766231</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1579538236184469</v>
+        <v>0.1491001426409999</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -3100,19 +3100,19 @@
         <v>17551</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10534</v>
+        <v>10144</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>26631</v>
+        <v>26842</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05818040982406439</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03491961308462233</v>
+        <v>0.03362523674225967</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08828052788810546</v>
+        <v>0.08897907283844741</v>
       </c>
     </row>
     <row r="6">
@@ -3129,19 +3129,19 @@
         <v>4188</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>977</v>
+        <v>1126</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9959</v>
+        <v>10105</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02407733375094674</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005618517718564262</v>
+        <v>0.006476801415842262</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05726085833087555</v>
+        <v>0.05810321257335924</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -3150,19 +3150,19 @@
         <v>3132</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7964</v>
+        <v>8412</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0245177955251056</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007460165708607141</v>
+        <v>0.007415428250713198</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06234751065406696</v>
+        <v>0.06585434794531728</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -3171,19 +3171,19 @@
         <v>7320</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3007</v>
+        <v>3162</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13881</v>
+        <v>14816</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02426385125684045</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009967645861316314</v>
+        <v>0.01048264753739363</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04601596557541231</v>
+        <v>0.04911399634796435</v>
       </c>
     </row>
     <row r="7">
@@ -3200,19 +3200,19 @@
         <v>26541</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17855</v>
+        <v>18100</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37041</v>
+        <v>37481</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1526032944697155</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1026637601213486</v>
+        <v>0.1040697882081481</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2129759010863243</v>
+        <v>0.2155031513681611</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -3221,19 +3221,19 @@
         <v>22178</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14748</v>
+        <v>14072</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31835</v>
+        <v>32229</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1736139340548904</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1154521090144762</v>
+        <v>0.1101625045051993</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2492096763535137</v>
+        <v>0.2522934555221904</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -3242,19 +3242,19 @@
         <v>48719</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>37257</v>
+        <v>36270</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>63140</v>
+        <v>62035</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1615004390633466</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1235030514172735</v>
+        <v>0.1202321563792117</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2093041652637316</v>
+        <v>0.2056434212987547</v>
       </c>
     </row>
     <row r="8">
@@ -3271,19 +3271,19 @@
         <v>71370</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>58263</v>
+        <v>57825</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>85072</v>
+        <v>85687</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4103577274735024</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.334996949980269</v>
+        <v>0.3324781260773904</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4891360147374283</v>
+        <v>0.4926757607630602</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>36</v>
@@ -3292,19 +3292,19 @@
         <v>39300</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>28696</v>
+        <v>29816</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51280</v>
+        <v>50587</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3076519340712769</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2246363449209359</v>
+        <v>0.2334047043567285</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4014346998983345</v>
+        <v>0.3960097483403627</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>105</v>
@@ -3313,19 +3313,19 @@
         <v>110671</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>93481</v>
+        <v>92977</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>129668</v>
+        <v>127730</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3668660340960211</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3098825624853664</v>
+        <v>0.3082111192288172</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4298403531207569</v>
+        <v>0.4234151097683701</v>
       </c>
     </row>
     <row r="9">
@@ -3342,19 +3342,19 @@
         <v>64829</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>52238</v>
+        <v>51821</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>78312</v>
+        <v>78143</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3727494415236449</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3003542783615953</v>
+        <v>0.2979567163225025</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.450270649189107</v>
+        <v>0.4492966345957857</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>47</v>
@@ -3363,19 +3363,19 @@
         <v>49570</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>38603</v>
+        <v>39476</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>60705</v>
+        <v>61490</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3880415112352603</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3021909044862428</v>
+        <v>0.3090294106697558</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4752129303064312</v>
+        <v>0.4813555836664413</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>108</v>
@@ -3384,19 +3384,19 @@
         <v>114399</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>95979</v>
+        <v>99170</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>132133</v>
+        <v>131219</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3792250061921346</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3181653502947838</v>
+        <v>0.3287405529350809</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.438011070585447</v>
+        <v>0.4349811236392225</v>
       </c>
     </row>
     <row r="10">
@@ -3488,19 +3488,19 @@
         <v>80195</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>63550</v>
+        <v>62801</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>101157</v>
+        <v>98422</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09819945167023998</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07781677158293236</v>
+        <v>0.07690038108944756</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1238676301116582</v>
+        <v>0.1205189168613648</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>29</v>
@@ -3509,19 +3509,19 @@
         <v>32186</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22510</v>
+        <v>22403</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>44889</v>
+        <v>45563</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06280095229202746</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04392158640057705</v>
+        <v>0.04371355292599314</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08758716196485845</v>
+        <v>0.08890234642458512</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>101</v>
@@ -3530,19 +3530,19 @@
         <v>112381</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>90261</v>
+        <v>92534</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>134790</v>
+        <v>138798</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08455029505561118</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06790791987534875</v>
+        <v>0.06961842723157768</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1014094962434012</v>
+        <v>0.1044248754827558</v>
       </c>
     </row>
     <row r="12">
@@ -3559,19 +3559,19 @@
         <v>59957</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>46636</v>
+        <v>46359</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>80248</v>
+        <v>78345</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0734178866764971</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05710616045917665</v>
+        <v>0.05676713768387345</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09826356257779779</v>
+        <v>0.09593364619012769</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>31</v>
@@ -3580,19 +3580,19 @@
         <v>32573</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>22112</v>
+        <v>22689</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>44282</v>
+        <v>45544</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06355551440839552</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04314452076612646</v>
+        <v>0.044270299282153</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08640234401764446</v>
+        <v>0.08886598550543402</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>85</v>
@@ -3601,19 +3601,19 @@
         <v>92530</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>74636</v>
+        <v>74967</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>113633</v>
+        <v>113328</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06961509655703955</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05615290815114195</v>
+        <v>0.05640163520735</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08549215283775513</v>
+        <v>0.08526242992026128</v>
       </c>
     </row>
     <row r="13">
@@ -3630,19 +3630,19 @@
         <v>34310</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24590</v>
+        <v>23318</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46596</v>
+        <v>46717</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0420126632209688</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03011030046268765</v>
+        <v>0.02855270747337034</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05705729619408787</v>
+        <v>0.05720538402774206</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -3651,19 +3651,19 @@
         <v>38693</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27042</v>
+        <v>27605</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52386</v>
+        <v>53256</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07549682378436193</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05276456385799517</v>
+        <v>0.05386236699901068</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1022145449673259</v>
+        <v>0.1039122347687991</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>69</v>
@@ -3672,19 +3672,19 @@
         <v>73002</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56830</v>
+        <v>57707</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>91631</v>
+        <v>91012</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05492367808507428</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04275662962405091</v>
+        <v>0.04341644356090844</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06893860544579414</v>
+        <v>0.06847295853318681</v>
       </c>
     </row>
     <row r="14">
@@ -3701,19 +3701,19 @@
         <v>152491</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>130464</v>
+        <v>131056</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>177507</v>
+        <v>178567</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1867263425264178</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1597544214365975</v>
+        <v>0.1604785036318056</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.217358554069708</v>
+        <v>0.2186560949939059</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>54</v>
@@ -3722,19 +3722,19 @@
         <v>57854</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>43557</v>
+        <v>43886</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>74521</v>
+        <v>74450</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1128852878080512</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08498920976148482</v>
+        <v>0.08563104444344294</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.145404616945999</v>
+        <v>0.1452670749368896</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>198</v>
@@ -3743,19 +3743,19 @@
         <v>210346</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>184150</v>
+        <v>184877</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>237605</v>
+        <v>239298</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1582542847232925</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1385457326828441</v>
+        <v>0.139092979201514</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1787627407176196</v>
+        <v>0.1800367242736665</v>
       </c>
     </row>
     <row r="15">
@@ -3772,19 +3772,19 @@
         <v>328236</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>298020</v>
+        <v>301821</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>356624</v>
+        <v>357644</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4019273829147281</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3649266960359621</v>
+        <v>0.369581976445004</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4366885742503128</v>
+        <v>0.437937198284413</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>195</v>
@@ -3793,19 +3793,19 @@
         <v>204941</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>182523</v>
+        <v>184611</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>228134</v>
+        <v>229380</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.399879571196449</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3561381000532454</v>
+        <v>0.3602120416615641</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4451339819393025</v>
+        <v>0.4475662515165519</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>508</v>
@@ -3814,19 +3814,19 @@
         <v>533177</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>498546</v>
+        <v>498089</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>570688</v>
+        <v>569915</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4011377759158148</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3750831016258163</v>
+        <v>0.374738777861986</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4293590384518553</v>
+        <v>0.4287775654087929</v>
       </c>
     </row>
     <row r="16">
@@ -3843,19 +3843,19 @@
         <v>161466</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>138989</v>
+        <v>138528</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>186680</v>
+        <v>184806</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1977162729911482</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.170192493279197</v>
+        <v>0.1696289053871543</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2285903710618883</v>
+        <v>0.2262960124021306</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>134</v>
@@ -3864,19 +3864,19 @@
         <v>146260</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>125835</v>
+        <v>126753</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>168264</v>
+        <v>170595</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2853818505107149</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.245529041273593</v>
+        <v>0.2473197129315058</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3283159673400203</v>
+        <v>0.3328640155186066</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>289</v>
@@ -3885,19 +3885,19 @@
         <v>307726</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>278409</v>
+        <v>273359</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>337464</v>
+        <v>337672</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2315188696631676</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2094622721621556</v>
+        <v>0.2056626895755311</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2538924386629636</v>
+        <v>0.2540485411802164</v>
       </c>
     </row>
     <row r="17">
@@ -3989,19 +3989,19 @@
         <v>36213</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>25358</v>
+        <v>25341</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>50581</v>
+        <v>49931</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.135160568198156</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09464504148387615</v>
+        <v>0.09457974760770661</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1887840518672778</v>
+        <v>0.1863580693355055</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>30</v>
@@ -4010,19 +4010,19 @@
         <v>32504</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>22734</v>
+        <v>23088</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>43947</v>
+        <v>45073</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1743291327810516</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1219306454692206</v>
+        <v>0.1238268628734662</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2357039011856044</v>
+        <v>0.2417419688649723</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>61</v>
@@ -4031,19 +4031,19 @@
         <v>68717</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>53289</v>
+        <v>53315</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>86317</v>
+        <v>86687</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1512329751465106</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1172786864412009</v>
+        <v>0.1173364744562428</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1899662625128561</v>
+        <v>0.1907815812569172</v>
       </c>
     </row>
     <row r="19">
@@ -4060,19 +4060,19 @@
         <v>24320</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15921</v>
+        <v>15832</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>36109</v>
+        <v>36030</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0907685944634324</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05942150547241432</v>
+        <v>0.0590909567165366</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.134769602678105</v>
+        <v>0.1344772330505009</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -4081,19 +4081,19 @@
         <v>12883</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6945</v>
+        <v>7515</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21486</v>
+        <v>21909</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06909430597048452</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03724978813280987</v>
+        <v>0.04030708046530732</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1152369799514543</v>
+        <v>0.1175037275776868</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -4102,19 +4102,19 @@
         <v>37202</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26045</v>
+        <v>27279</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>51259</v>
+        <v>50619</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08187477901003634</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05731982577898501</v>
+        <v>0.06003672801786813</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1128109180817892</v>
+        <v>0.1114018083087885</v>
       </c>
     </row>
     <row r="20">
@@ -4131,19 +4131,19 @@
         <v>21967</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13986</v>
+        <v>14687</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>32201</v>
+        <v>33516</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0819889990576652</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05220211943637371</v>
+        <v>0.05481597820114324</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1201863790189271</v>
+        <v>0.1250920919052499</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -4152,19 +4152,19 @@
         <v>11262</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5868</v>
+        <v>5656</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21259</v>
+        <v>21430</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06040464352573506</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03147374674110269</v>
+        <v>0.03033625696599537</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1140218620087986</v>
+        <v>0.1149394928901097</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>31</v>
@@ -4173,19 +4173,19 @@
         <v>33230</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>22644</v>
+        <v>23044</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>46012</v>
+        <v>47812</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0731320866453415</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04983569055542968</v>
+        <v>0.05071566646246437</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1012638197395118</v>
+        <v>0.105224883143604</v>
       </c>
     </row>
     <row r="21">
@@ -4202,19 +4202,19 @@
         <v>56458</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>43076</v>
+        <v>43473</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>70053</v>
+        <v>69904</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2107213352372514</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1607724715140856</v>
+        <v>0.1622568988482636</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2614606401071924</v>
+        <v>0.2609044588141183</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>45</v>
@@ -4223,19 +4223,19 @@
         <v>47853</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>36249</v>
+        <v>35075</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>60964</v>
+        <v>60742</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2566551542476511</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1944147993470733</v>
+        <v>0.1881212676311916</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3269745587988699</v>
+        <v>0.3257799266641469</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>99</v>
@@ -4244,19 +4244,19 @@
         <v>104312</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>87375</v>
+        <v>86371</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>125261</v>
+        <v>123286</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2295697929147023</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1922951064863075</v>
+        <v>0.1900848632494896</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2756754753133361</v>
+        <v>0.271329114250755</v>
       </c>
     </row>
     <row r="22">
@@ -4273,19 +4273,19 @@
         <v>88435</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>73019</v>
+        <v>71201</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>105224</v>
+        <v>104518</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3300684399674134</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2725323301693378</v>
+        <v>0.2657471715866015</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3927290733823589</v>
+        <v>0.390097337736125</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>41</v>
@@ -4294,19 +4294,19 @@
         <v>47404</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35076</v>
+        <v>35620</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>61947</v>
+        <v>61683</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2542453299025738</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1881242381593649</v>
+        <v>0.1910458473075047</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3322464470011634</v>
+        <v>0.3308287990931044</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>122</v>
@@ -4315,19 +4315,19 @@
         <v>135839</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>115648</v>
+        <v>117592</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>157942</v>
+        <v>159448</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2989552272666304</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2545196772404029</v>
+        <v>0.2587973721731558</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3476001959236941</v>
+        <v>0.3509136719841215</v>
       </c>
     </row>
     <row r="23">
@@ -4344,19 +4344,19 @@
         <v>40536</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>28326</v>
+        <v>28800</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>55166</v>
+        <v>55809</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1512920630760816</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.105723637762499</v>
+        <v>0.1074893546402172</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2058960259816869</v>
+        <v>0.20829942375662</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>31</v>
@@ -4365,19 +4365,19 @@
         <v>34544</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>24689</v>
+        <v>24930</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>46807</v>
+        <v>47066</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1852714335725041</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1324140789587356</v>
+        <v>0.1337097971131683</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.251045542331349</v>
+        <v>0.2524306239064272</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>65</v>
@@ -4386,19 +4386,19 @@
         <v>75079</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>60854</v>
+        <v>59562</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>96033</v>
+        <v>93419</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1652351390167788</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1339284858828386</v>
+        <v>0.1310838987859122</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2113506535443023</v>
+        <v>0.2055969111249994</v>
       </c>
     </row>
     <row r="24">
@@ -4490,19 +4490,19 @@
         <v>117456</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>97996</v>
+        <v>95882</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>141443</v>
+        <v>139954</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09332963696518336</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07786694010530326</v>
+        <v>0.07618665582968134</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1123894906939755</v>
+        <v>0.1112065520055001</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>61</v>
@@ -4511,19 +4511,19 @@
         <v>66648</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>50733</v>
+        <v>51191</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>87385</v>
+        <v>84620</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08061936096315722</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06136789148537259</v>
+        <v>0.061921718035111</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1057033552460503</v>
+        <v>0.1023589135967252</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>165</v>
@@ -4532,19 +4532,19 @@
         <v>184104</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>159286</v>
+        <v>157936</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>214657</v>
+        <v>213565</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08829053596705462</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07638849185668577</v>
+        <v>0.07574102429478331</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.102943038195896</v>
+        <v>0.1024193007232631</v>
       </c>
     </row>
     <row r="26">
@@ -4561,19 +4561,19 @@
         <v>90223</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>72061</v>
+        <v>71650</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>109602</v>
+        <v>111520</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07169054423014364</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05725924739983088</v>
+        <v>0.05693251074328175</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08708917502802731</v>
+        <v>0.08861257517980647</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>55</v>
@@ -4582,19 +4582,19 @@
         <v>57060</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>43140</v>
+        <v>42584</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>73144</v>
+        <v>73271</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06902131749781888</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05218404350597834</v>
+        <v>0.05151062799057032</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08847752318412022</v>
+        <v>0.08863081901149453</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>138</v>
@@ -4603,19 +4603,19 @@
         <v>147283</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>125128</v>
+        <v>123612</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>172651</v>
+        <v>171954</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07063230575531072</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06000764231444473</v>
+        <v>0.0592802521555414</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08279810847394739</v>
+        <v>0.08246366033039364</v>
       </c>
     </row>
     <row r="27">
@@ -4632,19 +4632,19 @@
         <v>60465</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>46756</v>
+        <v>46378</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>78393</v>
+        <v>76251</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.04804478555097789</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03715227792491012</v>
+        <v>0.03685122789227819</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0622906420660773</v>
+        <v>0.06058827599718958</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>47</v>
@@ -4653,19 +4653,19 @@
         <v>53087</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>39067</v>
+        <v>39906</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>69197</v>
+        <v>69568</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.06421563740836868</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04725618185370276</v>
+        <v>0.04827141833846006</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08370302161856302</v>
+        <v>0.08415164991979712</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>107</v>
@@ -4674,19 +4674,19 @@
         <v>113552</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>94286</v>
+        <v>94055</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>138536</v>
+        <v>136194</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.05445586236175527</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04521678429406975</v>
+        <v>0.0451056778254652</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.06643759191255279</v>
+        <v>0.06531443090759054</v>
       </c>
     </row>
     <row r="28">
@@ -4703,19 +4703,19 @@
         <v>235491</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>204292</v>
+        <v>206878</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>261119</v>
+        <v>264206</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1871190273173423</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1623287887453885</v>
+        <v>0.1643833056202483</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2074829210502244</v>
+        <v>0.2099359607686439</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>119</v>
@@ -4724,19 +4724,19 @@
         <v>127886</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>107323</v>
+        <v>108507</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>149656</v>
+        <v>149388</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1546943409890966</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1298209996779857</v>
+        <v>0.1312529762688794</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1810289278791783</v>
+        <v>0.180704131494724</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>342</v>
@@ -4745,19 +4745,19 @@
         <v>363376</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>327643</v>
+        <v>326522</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>396429</v>
+        <v>398743</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1742639745069527</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1571274809919578</v>
+        <v>0.1565899797608956</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.190115019055983</v>
+        <v>0.1912245622996257</v>
       </c>
     </row>
     <row r="29">
@@ -4774,19 +4774,19 @@
         <v>488042</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>449804</v>
+        <v>451609</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>520264</v>
+        <v>523101</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3877940693613812</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3574103217137619</v>
+        <v>0.3588444822374411</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4133972399820269</v>
+        <v>0.4156519851841547</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>272</v>
@@ -4795,19 +4795,19 @@
         <v>291645</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>264533</v>
+        <v>263867</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>319651</v>
+        <v>322367</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3527827562485324</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3199879037671189</v>
+        <v>0.3191823543557038</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3866596754345706</v>
+        <v>0.3899457345427942</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>735</v>
@@ -4816,19 +4816,19 @@
         <v>779687</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>734974</v>
+        <v>734806</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>823573</v>
+        <v>823770</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3739135255537857</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3524708013302161</v>
+        <v>0.3523900194234995</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3949601526532864</v>
+        <v>0.3950542992676914</v>
       </c>
     </row>
     <row r="30">
@@ -4845,19 +4845,19 @@
         <v>266831</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>236491</v>
+        <v>237292</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>297393</v>
+        <v>296584</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2120219365749715</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1879140689682658</v>
+        <v>0.1885501215170882</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.236305851343303</v>
+        <v>0.2356632662260566</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>212</v>
@@ -4866,19 +4866,19 @@
         <v>230373</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>203352</v>
+        <v>204048</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>257999</v>
+        <v>254775</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2786665868930263</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2459815020734929</v>
+        <v>0.2468227793296143</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3120837133561971</v>
+        <v>0.3081833430768917</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>462</v>
@@ -4887,19 +4887,19 @@
         <v>497204</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>460504</v>
+        <v>457603</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>537826</v>
+        <v>539570</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2384437958551411</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2208436004021714</v>
+        <v>0.2194523867895596</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2579248569161257</v>
+        <v>0.2587611745498306</v>
       </c>
     </row>
     <row r="31">
@@ -5230,19 +5230,19 @@
         <v>5017</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1985</v>
+        <v>1963</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11227</v>
+        <v>12007</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04201233562451114</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01662178741650137</v>
+        <v>0.01644008622773364</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09400770979991573</v>
+        <v>0.1005394889515153</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -5254,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6323</v>
+        <v>6416</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03065827630973978</v>
@@ -5263,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1050644248552406</v>
+        <v>0.1066040468399404</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -5272,19 +5272,19 @@
         <v>6862</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2849</v>
+        <v>2962</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13053</v>
+        <v>13817</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03820790406602145</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0158623447290183</v>
+        <v>0.01649102321575313</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07267477542049723</v>
+        <v>0.07693074688902282</v>
       </c>
     </row>
     <row r="5">
@@ -5301,19 +5301,19 @@
         <v>7330</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3042</v>
+        <v>3034</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14324</v>
+        <v>14979</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06137509455242567</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02547361421792611</v>
+        <v>0.02540472527409322</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1199436389941903</v>
+        <v>0.1254282563681355</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -5322,19 +5322,19 @@
         <v>5226</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1970</v>
+        <v>1950</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11159</v>
+        <v>10670</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08684135563373019</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03272770439790088</v>
+        <v>0.03239713492878017</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1854215930091794</v>
+        <v>0.1773020583667241</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -5343,19 +5343,19 @@
         <v>12556</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7127</v>
+        <v>6545</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21605</v>
+        <v>21620</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06990813499624367</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03967983858188372</v>
+        <v>0.03643777965528074</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1202923321802569</v>
+        <v>0.1203718719436264</v>
       </c>
     </row>
     <row r="6">
@@ -5372,19 +5372,19 @@
         <v>5576</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1940</v>
+        <v>1935</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13021</v>
+        <v>12508</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04668856848086862</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.016240261393117</v>
+        <v>0.01620037083395216</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1090337917911051</v>
+        <v>0.10473050607758</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -5393,19 +5393,19 @@
         <v>7609</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3506</v>
+        <v>3277</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13955</v>
+        <v>13803</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1264317638365453</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05826161975987142</v>
+        <v>0.05445080660867403</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2318847822899606</v>
+        <v>0.229347843591327</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -5414,19 +5414,19 @@
         <v>13185</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7071</v>
+        <v>7889</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>22241</v>
+        <v>21401</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07340830990332685</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03936641858081567</v>
+        <v>0.04392431068090197</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1238301585611708</v>
+        <v>0.1191553917358113</v>
       </c>
     </row>
     <row r="7">
@@ -5443,19 +5443,19 @@
         <v>33365</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23879</v>
+        <v>23653</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43757</v>
+        <v>43424</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2793813340759438</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1999458035711725</v>
+        <v>0.1980550553106189</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3663907768731799</v>
+        <v>0.3636028007500617</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -5464,19 +5464,19 @@
         <v>9090</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4214</v>
+        <v>4074</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16035</v>
+        <v>15292</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1510454192853216</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07001918380012062</v>
+        <v>0.067689773547501</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.266444521591461</v>
+        <v>0.2540980073928906</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -5485,19 +5485,19 @@
         <v>42456</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>31240</v>
+        <v>32258</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54915</v>
+        <v>54597</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2363795150100622</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1739341945699471</v>
+        <v>0.1796015185934361</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3057484819706783</v>
+        <v>0.3039786727468226</v>
       </c>
     </row>
     <row r="8">
@@ -5514,19 +5514,19 @@
         <v>44449</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>34487</v>
+        <v>33358</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>56836</v>
+        <v>55737</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3721890853753859</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2887718445397632</v>
+        <v>0.2793167904839546</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4759121919613138</v>
+        <v>0.4667073641915775</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>16</v>
@@ -5535,19 +5535,19 @@
         <v>16041</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9835</v>
+        <v>9702</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23678</v>
+        <v>23386</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2665385919325294</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1634156221334102</v>
+        <v>0.1612136026649105</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3934326688740975</v>
+        <v>0.388593926911753</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>57</v>
@@ -5556,19 +5556,19 @@
         <v>60490</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>47409</v>
+        <v>47183</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>73174</v>
+        <v>73871</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3367885241944966</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.263958085492646</v>
+        <v>0.262697448225682</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4074105081197916</v>
+        <v>0.4112880385448506</v>
       </c>
     </row>
     <row r="9">
@@ -5585,19 +5585,19 @@
         <v>23689</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15975</v>
+        <v>16294</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>32947</v>
+        <v>34598</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1983535818908648</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1337659736669352</v>
+        <v>0.1364324313705768</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2758791399136552</v>
+        <v>0.2897052989253471</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>20</v>
@@ -5606,19 +5606,19 @@
         <v>20371</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>13207</v>
+        <v>13371</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>27570</v>
+        <v>28202</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3384845930021337</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2194564965691649</v>
+        <v>0.2221835648253161</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4581152326700638</v>
+        <v>0.4686109695518469</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>42</v>
@@ -5627,19 +5627,19 @@
         <v>44059</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>33025</v>
+        <v>33621</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>55697</v>
+        <v>56681</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2453076118298493</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1838730538985302</v>
+        <v>0.1871933498819312</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3101033600876453</v>
+        <v>0.3155836541004833</v>
       </c>
     </row>
     <row r="10">
@@ -5731,19 +5731,19 @@
         <v>77221</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>61282</v>
+        <v>60796</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>96694</v>
+        <v>95255</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09068291714638611</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07196499433427786</v>
+        <v>0.07139442230723411</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1135507123736973</v>
+        <v>0.1118616403445616</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>45</v>
@@ -5752,19 +5752,19 @@
         <v>47779</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>35000</v>
+        <v>35008</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>63112</v>
+        <v>64519</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08244483824348597</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06039446649768006</v>
+        <v>0.06040776975769652</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.108904271504468</v>
+        <v>0.1113316310578102</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>114</v>
@@ -5773,19 +5773,19 @@
         <v>124999</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>105568</v>
+        <v>104710</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>149607</v>
+        <v>150431</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08734684315295566</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07376867182676008</v>
+        <v>0.073169443745171</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1045425142219251</v>
+        <v>0.1051178287382744</v>
       </c>
     </row>
     <row r="12">
@@ -5802,19 +5802,19 @@
         <v>47566</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>35752</v>
+        <v>35110</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>64607</v>
+        <v>63454</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0558578657287992</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04198485009359972</v>
+        <v>0.04123085138127534</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07586996310350243</v>
+        <v>0.07451642663410248</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>26</v>
@@ -5823,19 +5823,19 @@
         <v>26334</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17900</v>
+        <v>16898</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>39048</v>
+        <v>36843</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04544084685994807</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03088740050799861</v>
+        <v>0.02915908252383035</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06737913482545267</v>
+        <v>0.06357535986340619</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>69</v>
@@ -5844,19 +5844,19 @@
         <v>73900</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>58621</v>
+        <v>59075</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>94082</v>
+        <v>91308</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0516394130838246</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0409633038332908</v>
+        <v>0.04128062075919901</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06574222504764461</v>
+        <v>0.06380391724557406</v>
       </c>
     </row>
     <row r="13">
@@ -5873,19 +5873,19 @@
         <v>42837</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30181</v>
+        <v>31640</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57351</v>
+        <v>57355</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05030523363255122</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03544244918760482</v>
+        <v>0.03715608021547916</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0673494495582295</v>
+        <v>0.06735360992997172</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -5894,19 +5894,19 @@
         <v>32837</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22729</v>
+        <v>22120</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48101</v>
+        <v>45363</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05666152337471096</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03921966459564811</v>
+        <v>0.03816898719471627</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08300196186772452</v>
+        <v>0.07827742632712319</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>70</v>
@@ -5915,19 +5915,19 @@
         <v>75674</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>60233</v>
+        <v>59185</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>94355</v>
+        <v>93854</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05287926249941031</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04208921492422687</v>
+        <v>0.04135688038081088</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06593349616198264</v>
+        <v>0.06558311838280498</v>
       </c>
     </row>
     <row r="14">
@@ -5944,19 +5944,19 @@
         <v>195678</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>171177</v>
+        <v>171336</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>224676</v>
+        <v>219566</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2297914636737982</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2010196382856231</v>
+        <v>0.2012061304189427</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.263844339182876</v>
+        <v>0.2578439133587123</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>105</v>
@@ -5965,19 +5965,19 @@
         <v>103552</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>85717</v>
+        <v>85776</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>121564</v>
+        <v>121859</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1786849113534374</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1479091702091208</v>
+        <v>0.1480111524476959</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2097655714494235</v>
+        <v>0.2102752209873657</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>288</v>
@@ -5986,19 +5986,19 @@
         <v>299230</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>269189</v>
+        <v>269996</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>333068</v>
+        <v>331081</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2090954686366753</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1881034503351716</v>
+        <v>0.188667524102175</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2327408736884205</v>
+        <v>0.2313522832957898</v>
       </c>
     </row>
     <row r="15">
@@ -6015,19 +6015,19 @@
         <v>350286</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>321431</v>
+        <v>323642</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>380650</v>
+        <v>378449</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4113526466886352</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3774672626685945</v>
+        <v>0.3800637596574546</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4470106107976141</v>
+        <v>0.4444256592298507</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>240</v>
@@ -6036,19 +6036,19 @@
         <v>243703</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>219530</v>
+        <v>219249</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>266990</v>
+        <v>267732</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4205248953404099</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3788127627533557</v>
+        <v>0.3783276867990819</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4607076560473184</v>
+        <v>0.461987915657132</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>574</v>
@@ -6057,19 +6057,19 @@
         <v>593989</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>555058</v>
+        <v>559053</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>633436</v>
+        <v>631410</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4150670199726409</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3878630519226965</v>
+        <v>0.3906546275665099</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4426319418944673</v>
+        <v>0.4412156026995768</v>
       </c>
     </row>
     <row r="16">
@@ -6086,19 +6086,19 @@
         <v>137959</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>117857</v>
+        <v>116006</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>164936</v>
+        <v>159570</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.16200987312983</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1384040086776221</v>
+        <v>0.1362296037281194</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1936898218516277</v>
+        <v>0.1873887263224213</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>122</v>
@@ -6107,19 +6107,19 @@
         <v>125318</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>107116</v>
+        <v>107408</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>146227</v>
+        <v>148293</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2162429848280077</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1848348591937922</v>
+        <v>0.1853392596739239</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2523240129513373</v>
+        <v>0.2558882545421963</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>252</v>
@@ -6128,19 +6128,19 @@
         <v>263276</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>235740</v>
+        <v>232256</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>292359</v>
+        <v>293830</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1839719926544932</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1647302713173469</v>
+        <v>0.1622952896978268</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2042942038543441</v>
+        <v>0.2053219990963723</v>
       </c>
     </row>
     <row r="17">
@@ -6232,19 +6232,19 @@
         <v>64104</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>49878</v>
+        <v>50640</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>79413</v>
+        <v>80378</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2100922074086138</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1634688991967737</v>
+        <v>0.1659642592857032</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2602644139975032</v>
+        <v>0.2634271362577731</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>53</v>
@@ -6253,19 +6253,19 @@
         <v>58225</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>44565</v>
+        <v>45052</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>73435</v>
+        <v>72645</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.221408027166829</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1694658756282233</v>
+        <v>0.1713171168388203</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2792461960161602</v>
+        <v>0.2762431425878508</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>113</v>
@@ -6274,19 +6274,19 @@
         <v>122329</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>103382</v>
+        <v>104725</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>143942</v>
+        <v>142823</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2153303399881424</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1819785412411055</v>
+        <v>0.1843432646773306</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2533744310878364</v>
+        <v>0.2514054843442892</v>
       </c>
     </row>
     <row r="19">
@@ -6303,19 +6303,19 @@
         <v>17407</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10137</v>
+        <v>10253</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28672</v>
+        <v>27225</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05704949252253101</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0332232027534119</v>
+        <v>0.03360135286624128</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09396936724370553</v>
+        <v>0.08922625083538997</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -6324,19 +6324,19 @@
         <v>19982</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12439</v>
+        <v>12546</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29176</v>
+        <v>29056</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07598342717141253</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04730116514992864</v>
+        <v>0.04770806068227167</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1109440630876149</v>
+        <v>0.1104896638304432</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -6345,19 +6345,19 @@
         <v>37389</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26151</v>
+        <v>26780</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>50217</v>
+        <v>51483</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0658140771537918</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0460330089129672</v>
+        <v>0.04714043393515571</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08839504328305821</v>
+        <v>0.09062393522778811</v>
       </c>
     </row>
     <row r="20">
@@ -6374,19 +6374,19 @@
         <v>32470</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>22695</v>
+        <v>22201</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>45413</v>
+        <v>45802</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1064159984922092</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07437926759213336</v>
+        <v>0.0727595011524836</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1488346942481857</v>
+        <v>0.1501103675811425</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -6395,19 +6395,19 @@
         <v>14436</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8425</v>
+        <v>8479</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23189</v>
+        <v>24392</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05489515343562567</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03203799435148681</v>
+        <v>0.03224163901759591</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0881783332465044</v>
+        <v>0.0927537133967991</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>44</v>
@@ -6416,19 +6416,19 @@
         <v>46906</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>35193</v>
+        <v>34430</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>62418</v>
+        <v>61836</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08256681895576379</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06194912653278505</v>
+        <v>0.06060488883020485</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1098717731078092</v>
+        <v>0.1088480793484388</v>
       </c>
     </row>
     <row r="21">
@@ -6445,19 +6445,19 @@
         <v>65336</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>51712</v>
+        <v>51482</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>81618</v>
+        <v>79737</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2141292877498306</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1694782249862212</v>
+        <v>0.1687235356117995</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2674898689869665</v>
+        <v>0.2613271796604534</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>65</v>
@@ -6466,19 +6466,19 @@
         <v>67592</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>54986</v>
+        <v>53782</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>83938</v>
+        <v>82301</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2570268601973709</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2090917648777546</v>
+        <v>0.2045122208112585</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.319187632304691</v>
+        <v>0.312961119869262</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>126</v>
@@ -6487,19 +6487,19 @@
         <v>132927</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>113006</v>
+        <v>112109</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>155691</v>
+        <v>154045</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2339867242079372</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1989192681209559</v>
+        <v>0.1973415565059691</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2740557607387736</v>
+        <v>0.271159450127342</v>
       </c>
     </row>
     <row r="22">
@@ -6516,19 +6516,19 @@
         <v>85292</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>69023</v>
+        <v>69116</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>103403</v>
+        <v>101434</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2795316302383085</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2262128889697602</v>
+        <v>0.2265190812080485</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3388899438287555</v>
+        <v>0.3324346912242389</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>74</v>
@@ -6537,19 +6537,19 @@
         <v>75837</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>62972</v>
+        <v>61738</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>92757</v>
+        <v>92186</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2883801921009018</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2394598133626536</v>
+        <v>0.2347662061800681</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3527235886915556</v>
+        <v>0.3505512344351067</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>152</v>
@@ -6558,19 +6558,19 @@
         <v>161128</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>141381</v>
+        <v>140335</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>183403</v>
+        <v>183758</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2836276605007889</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2488675057182924</v>
+        <v>0.2470258788686383</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3228370440065061</v>
+        <v>0.3234626164450723</v>
       </c>
     </row>
     <row r="23">
@@ -6587,19 +6587,19 @@
         <v>40515</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>28820</v>
+        <v>30168</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>55713</v>
+        <v>55402</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1327813835885069</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0944549876793216</v>
+        <v>0.09886987907691187</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1825909396089229</v>
+        <v>0.1815712007213505</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>26</v>
@@ -6608,19 +6608,19 @@
         <v>26904</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>17795</v>
+        <v>18970</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>36842</v>
+        <v>39015</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1023063399278601</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06766820093970485</v>
+        <v>0.07213542745888062</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1400969374347485</v>
+        <v>0.1483595950298058</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>62</v>
@@ -6629,19 +6629,19 @@
         <v>67419</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>52420</v>
+        <v>52125</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>85492</v>
+        <v>84122</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.118674379193576</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0922733643993727</v>
+        <v>0.09175415153269852</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1504888999051649</v>
+        <v>0.1480757622748632</v>
       </c>
     </row>
     <row r="24">
@@ -6733,19 +6733,19 @@
         <v>146342</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>123678</v>
+        <v>124579</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>168659</v>
+        <v>169532</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1146795783020437</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09691871500472946</v>
+        <v>0.09762522425459001</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1321676073357083</v>
+        <v>0.1328523748605714</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>100</v>
@@ -6754,19 +6754,19 @@
         <v>107848</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>90218</v>
+        <v>87947</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>129616</v>
+        <v>129822</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1194759596020693</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09994501030803035</v>
+        <v>0.09742914420578934</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1435908030197236</v>
+        <v>0.143818536810291</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>234</v>
@@ -6775,19 +6775,19 @@
         <v>254190</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>224732</v>
+        <v>224336</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>285647</v>
+        <v>283677</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1166667460713352</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1031461840123988</v>
+        <v>0.1029643916303579</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1311044682150881</v>
+        <v>0.1302003247081762</v>
       </c>
     </row>
     <row r="26">
@@ -6804,19 +6804,19 @@
         <v>72302</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>57035</v>
+        <v>56636</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>89284</v>
+        <v>92072</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05665913477038755</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04469462823047158</v>
+        <v>0.04438198002927346</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06996680305039615</v>
+        <v>0.0721516955064576</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>52</v>
@@ -6825,19 +6825,19 @@
         <v>51542</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>39202</v>
+        <v>39018</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>65701</v>
+        <v>67519</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05709890544087581</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04342836365117921</v>
+        <v>0.04322522158869688</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0727850013188038</v>
+        <v>0.07479876955984616</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>117</v>
@@ -6846,19 +6846,19 @@
         <v>123844</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>101212</v>
+        <v>103260</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>145630</v>
+        <v>148234</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05684133423444378</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04645351601457785</v>
+        <v>0.04739369395072818</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06684013190923895</v>
+        <v>0.06803544867476881</v>
       </c>
     </row>
     <row r="27">
@@ -6875,19 +6875,19 @@
         <v>80883</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>65104</v>
+        <v>64923</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>99701</v>
+        <v>101518</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.06338324233923402</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05101845779884648</v>
+        <v>0.05087657972964885</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07813009012935988</v>
+        <v>0.07955375287424855</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>53</v>
@@ -6896,19 +6896,19 @@
         <v>54881</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>42323</v>
+        <v>41669</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>72738</v>
+        <v>71464</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.06079852425379471</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04688563801742165</v>
+        <v>0.04616183940195354</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08057984148541243</v>
+        <v>0.07916923860043951</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>127</v>
@@ -6917,19 +6917,19 @@
         <v>135765</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>112328</v>
+        <v>115285</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>161597</v>
+        <v>160392</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.06231237908821131</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.05155577252313717</v>
+        <v>0.05291281972335488</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.07416884252127084</v>
+        <v>0.07361558702848087</v>
       </c>
     </row>
     <row r="28">
@@ -6946,19 +6946,19 @@
         <v>294379</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>265904</v>
+        <v>263552</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>327958</v>
+        <v>329165</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2306875086856708</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2083728657698159</v>
+        <v>0.2065298437742199</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.257001307141428</v>
+        <v>0.2579467800591094</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>179</v>
@@ -6967,19 +6967,19 @@
         <v>180233</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>157962</v>
+        <v>156413</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>206361</v>
+        <v>206669</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1996653129897195</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1749921257116599</v>
+        <v>0.1732765797819252</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2286095936915079</v>
+        <v>0.2289508886467029</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>455</v>
@@ -6988,19 +6988,19 @@
         <v>474613</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>437716</v>
+        <v>436647</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>515139</v>
+        <v>513941</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.217834838398736</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2009001240903489</v>
+        <v>0.200409527122116</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2364350883906714</v>
+        <v>0.235885337901193</v>
       </c>
     </row>
     <row r="29">
@@ -7017,19 +7017,19 @@
         <v>480027</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>446461</v>
+        <v>443722</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>512820</v>
+        <v>517263</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3761680924059779</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.349864719108171</v>
+        <v>0.3477186796148607</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4018659433219877</v>
+        <v>0.4053478250221016</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>330</v>
@@ -7038,19 +7038,19 @@
         <v>335581</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>305649</v>
+        <v>305091</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>364935</v>
+        <v>364632</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.371761276055231</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.338602179202062</v>
+        <v>0.3379844746351977</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4042808104463203</v>
+        <v>0.4039450246908827</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>783</v>
@@ -7059,19 +7059,19 @@
         <v>815607</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>767122</v>
+        <v>769941</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>862604</v>
+        <v>866265</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3743423235878598</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3520889414015624</v>
+        <v>0.3533826504853843</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3959125570361031</v>
+        <v>0.3975926915462334</v>
       </c>
     </row>
     <row r="30">
@@ -7088,19 +7088,19 @@
         <v>202162</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>178736</v>
+        <v>174583</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>230500</v>
+        <v>230219</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.158422443496686</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1400643129999101</v>
+        <v>0.1368104258184476</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1806289324666291</v>
+        <v>0.1804089179359165</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>168</v>
@@ -7109,19 +7109,19 @@
         <v>172592</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>149059</v>
+        <v>149830</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>197506</v>
+        <v>196533</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1912000216583097</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1651299822070246</v>
+        <v>0.1659841533401539</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2188004452675705</v>
+        <v>0.2177216924444868</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>356</v>
@@ -7130,19 +7130,19 @@
         <v>374754</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>342131</v>
+        <v>342272</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>412311</v>
+        <v>414023</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1720023786194139</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1570292339837663</v>
+        <v>0.1570937578320422</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.189239950559399</v>
+        <v>0.1900258095944216</v>
       </c>
     </row>
     <row r="31">
@@ -7473,19 +7473,19 @@
         <v>4619</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10846</v>
+        <v>11406</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0311971054570071</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007823163885520599</v>
+        <v>0.007763733424257156</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07325920803131813</v>
+        <v>0.07704464607254288</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -7494,19 +7494,19 @@
         <v>3701</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1407</v>
+        <v>1431</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8006</v>
+        <v>8695</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.04705983746052105</v>
+        <v>0.04705983746052104</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01788763028894152</v>
+        <v>0.01819465781054418</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1017852114907883</v>
+        <v>0.1105429697494403</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -7515,19 +7515,19 @@
         <v>8320</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4144</v>
+        <v>4178</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16156</v>
+        <v>15368</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03670069141741363</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01828011782481517</v>
+        <v>0.01842921930577865</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07126439455380314</v>
+        <v>0.06779207725198597</v>
       </c>
     </row>
     <row r="5">
@@ -7544,19 +7544,19 @@
         <v>4923</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1752</v>
+        <v>1821</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11500</v>
+        <v>11185</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03325551533666565</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01183729468482259</v>
+        <v>0.01230302145375812</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07768085841152803</v>
+        <v>0.07555337976874263</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -7565,19 +7565,19 @@
         <v>3232</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1249</v>
+        <v>1100</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7239</v>
+        <v>7169</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.04108793491604408</v>
+        <v>0.04108793491604407</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01588154858695343</v>
+        <v>0.01398130787187779</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0920404928810388</v>
+        <v>0.09114218477844466</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -7586,19 +7586,19 @@
         <v>8155</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3825</v>
+        <v>4103</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14745</v>
+        <v>15041</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03597297878643781</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0168730833204471</v>
+        <v>0.01810066394097385</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06504331030263646</v>
+        <v>0.06634687449171438</v>
       </c>
     </row>
     <row r="6">
@@ -7615,19 +7615,19 @@
         <v>7929</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2815</v>
+        <v>3256</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17127</v>
+        <v>17663</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05355606364613148</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01901632911316103</v>
+        <v>0.0219947771903161</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1156856574701172</v>
+        <v>0.1193084229422873</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -7636,19 +7636,19 @@
         <v>5378</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2430</v>
+        <v>2434</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9924</v>
+        <v>9994</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.06837350083456946</v>
+        <v>0.06837350083456945</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03089534764331908</v>
+        <v>0.03095104014996909</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1261760843393205</v>
+        <v>0.1270688409436234</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>14</v>
@@ -7657,19 +7657,19 @@
         <v>13307</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7510</v>
+        <v>7762</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23340</v>
+        <v>24042</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05869698383954002</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03312922860040828</v>
+        <v>0.03423914303299265</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1029567635474672</v>
+        <v>0.1060527390867435</v>
       </c>
     </row>
     <row r="7">
@@ -7686,19 +7686,19 @@
         <v>51797</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38627</v>
+        <v>40290</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66405</v>
+        <v>66256</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3498695034763521</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2609105593880723</v>
+        <v>0.2721435760163986</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4485414554330011</v>
+        <v>0.4475384512858966</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -7707,19 +7707,19 @@
         <v>13686</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8500</v>
+        <v>8552</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19914</v>
+        <v>20558</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.17400099279168</v>
+        <v>0.1740009927916799</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1080728382370309</v>
+        <v>0.10872606272365</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2531906919744134</v>
+        <v>0.2613672690606466</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>63</v>
@@ -7728,19 +7728,19 @@
         <v>65483</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52519</v>
+        <v>52099</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>80194</v>
+        <v>81189</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2888518007207767</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2316692608165349</v>
+        <v>0.2298138964111588</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.353744203744625</v>
+        <v>0.3581342922364166</v>
       </c>
     </row>
     <row r="8">
@@ -7757,19 +7757,19 @@
         <v>54051</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>40838</v>
+        <v>41358</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>69163</v>
+        <v>67517</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3650947981707193</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2758477226500446</v>
+        <v>0.2793567009975628</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4671741989324973</v>
+        <v>0.4560565317884546</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>32</v>
@@ -7778,19 +7778,19 @@
         <v>23124</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16953</v>
+        <v>16675</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>30674</v>
+        <v>31064</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2939914822586389</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.215536911030411</v>
+        <v>0.2120102730744797</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3899808802761608</v>
+        <v>0.394940083866186</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>80</v>
@@ -7799,19 +7799,19 @@
         <v>77174</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>63265</v>
+        <v>63143</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>93651</v>
+        <v>92667</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3404254529970512</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2790691774486346</v>
+        <v>0.2785329166293103</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4131059123634174</v>
+        <v>0.4087643711301638</v>
       </c>
     </row>
     <row r="9">
@@ -7828,19 +7828,19 @@
         <v>24728</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16161</v>
+        <v>15847</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>37529</v>
+        <v>36394</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1670270139131245</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1091624769818848</v>
+        <v>0.1070423541885443</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2534930552205302</v>
+        <v>0.2458297373170564</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>40</v>
@@ -7849,19 +7849,19 @@
         <v>29533</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>22838</v>
+        <v>22517</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>37186</v>
+        <v>37921</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.3754862517385467</v>
+        <v>0.3754862517385466</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2903660585894793</v>
+        <v>0.2862829558319153</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4727741623435718</v>
+        <v>0.4821253264901369</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>61</v>
@@ -7870,19 +7870,19 @@
         <v>54261</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>41416</v>
+        <v>42717</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>69437</v>
+        <v>68519</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2393520922387806</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1826900814912338</v>
+        <v>0.1884300341482052</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3062947717208168</v>
+        <v>0.3022459858516847</v>
       </c>
     </row>
     <row r="10">
@@ -7974,19 +7974,19 @@
         <v>112068</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>89883</v>
+        <v>92693</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>135307</v>
+        <v>136372</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.101053334891735</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08104889276359888</v>
+        <v>0.08358294897046857</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.122007924584518</v>
+        <v>0.1229685402557982</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>96</v>
@@ -7995,19 +7995,19 @@
         <v>76687</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>62015</v>
+        <v>61694</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>93469</v>
+        <v>92192</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09993676848343022</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08081734703067432</v>
+        <v>0.08039873056476803</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1218069353120095</v>
+        <v>0.1201424013658941</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>191</v>
@@ -8016,19 +8016,19 @@
         <v>188755</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>163606</v>
+        <v>163501</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>219518</v>
+        <v>218007</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1005967039220559</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08719371702166921</v>
+        <v>0.08713777862192579</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1169917711060582</v>
+        <v>0.1161867692614696</v>
       </c>
     </row>
     <row r="12">
@@ -8045,19 +8045,19 @@
         <v>61982</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>46651</v>
+        <v>46766</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>81109</v>
+        <v>81286</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05589026205340617</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0420657036930536</v>
+        <v>0.04216959275162713</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0731372412950798</v>
+        <v>0.07329694830274122</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>73</v>
@@ -8066,19 +8066,19 @@
         <v>55455</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>43620</v>
+        <v>44660</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>68973</v>
+        <v>68607</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07226849306908903</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05684518641557598</v>
+        <v>0.05820031550237414</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0898849162586171</v>
+        <v>0.08940748422009905</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>124</v>
@@ -8087,19 +8087,19 @@
         <v>117438</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>97631</v>
+        <v>98978</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>142616</v>
+        <v>143196</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0625883029891655</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05203248605851423</v>
+        <v>0.05274998723583268</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07600683020269298</v>
+        <v>0.07631623750170285</v>
       </c>
     </row>
     <row r="13">
@@ -8116,19 +8116,19 @@
         <v>127299</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>107559</v>
+        <v>106439</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>153353</v>
+        <v>154400</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1147869291898229</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09698697396348258</v>
+        <v>0.09597747118455283</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1382807596959302</v>
+        <v>0.1392247816670045</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>88</v>
@@ -8137,19 +8137,19 @@
         <v>66972</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54162</v>
+        <v>54056</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81196</v>
+        <v>82016</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.08727709730815091</v>
+        <v>0.08727709730815089</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07058235698957087</v>
+        <v>0.07044512508528959</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1058136229189888</v>
+        <v>0.1068814999097153</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>195</v>
@@ -8158,19 +8158,19 @@
         <v>194271</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>167740</v>
+        <v>167129</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>223099</v>
+        <v>223888</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1035365090496468</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08939690537953947</v>
+        <v>0.08907125487789833</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.118900211811592</v>
+        <v>0.1193209133538629</v>
       </c>
     </row>
     <row r="14">
@@ -8187,19 +8187,19 @@
         <v>332620</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>298624</v>
+        <v>291425</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>367172</v>
+        <v>365241</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2999274619685605</v>
+        <v>0.2999274619685604</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2692733307269969</v>
+        <v>0.2627814600215981</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3310835252410945</v>
+        <v>0.3293425663651818</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>249</v>
@@ -8208,19 +8208,19 @@
         <v>184726</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>162823</v>
+        <v>164827</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>204774</v>
+        <v>205988</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2407308754099841</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2121880591429125</v>
+        <v>0.2147998566626355</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2668577243391417</v>
+        <v>0.2684395648656886</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>517</v>
@@ -8229,19 +8229,19 @@
         <v>517345</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>475431</v>
+        <v>478537</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>559414</v>
+        <v>562410</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2757184274490878</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2533803741787275</v>
+        <v>0.2550358971108198</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2981391975831093</v>
+        <v>0.2997357697788871</v>
       </c>
     </row>
     <row r="15">
@@ -8258,19 +8258,19 @@
         <v>320990</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>290320</v>
+        <v>288573</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>357681</v>
+        <v>358385</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2894407146570302</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2617850523540984</v>
+        <v>0.2602100403323982</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3225258957934818</v>
+        <v>0.3231608027387146</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>303</v>
@@ -8279,19 +8279,19 @@
         <v>240792</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>217332</v>
+        <v>220031</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>265439</v>
+        <v>267049</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.313795675041008</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.283223070860207</v>
+        <v>0.2867409095406256</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3459147335057985</v>
+        <v>0.3480136591092434</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>583</v>
@@ -8300,19 +8300,19 @@
         <v>561782</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>519977</v>
+        <v>522677</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>605193</v>
+        <v>603088</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.299400918630492</v>
+        <v>0.2994009186304921</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2771208911092575</v>
+        <v>0.278559916519301</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.322536697784327</v>
+        <v>0.3214150920148979</v>
       </c>
     </row>
     <row r="16">
@@ -8329,19 +8329,19 @@
         <v>154042</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>131005</v>
+        <v>131046</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>182648</v>
+        <v>181699</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1389012972394452</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.118128980466572</v>
+        <v>0.1181657550368539</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1646958400781762</v>
+        <v>0.1638400899684163</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>194</v>
@@ -8350,19 +8350,19 @@
         <v>142721</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>123178</v>
+        <v>124497</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>162960</v>
+        <v>164379</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1859910906883377</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1605230796701405</v>
+        <v>0.1622427417588114</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2123665141430363</v>
+        <v>0.2142162053145931</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>333</v>
@@ -8371,19 +8371,19 @@
         <v>296762</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>266136</v>
+        <v>263598</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>332127</v>
+        <v>327625</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.158159137959552</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1418367505740487</v>
+        <v>0.140484293613998</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1770066761997848</v>
+        <v>0.1746075070920522</v>
       </c>
     </row>
     <row r="17">
@@ -8475,19 +8475,19 @@
         <v>87091</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>71738</v>
+        <v>70270</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>107966</v>
+        <v>106219</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2170371004593033</v>
+        <v>0.2170371004593034</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.178776382309101</v>
+        <v>0.1751186992740936</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2690598263130701</v>
+        <v>0.2647061484783588</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>103</v>
@@ -8496,19 +8496,19 @@
         <v>79119</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>66435</v>
+        <v>64910</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>95588</v>
+        <v>93047</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2051540122573066</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1722637443785321</v>
+        <v>0.1683094651517852</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2478557901697984</v>
+        <v>0.2412685570769376</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>177</v>
@@ -8517,19 +8517,19 @@
         <v>166210</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>142760</v>
+        <v>144623</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>189431</v>
+        <v>189572</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.2112134427820241</v>
+        <v>0.2112134427820242</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1814135840211123</v>
+        <v>0.1837815420495042</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2407212862042201</v>
+        <v>0.2409005610390494</v>
       </c>
     </row>
     <row r="19">
@@ -8546,19 +8546,19 @@
         <v>25975</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16573</v>
+        <v>16358</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>40182</v>
+        <v>38851</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06473172171266768</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04130198174901499</v>
+        <v>0.04076470518828247</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1001367140160801</v>
+        <v>0.09681916712995672</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>38</v>
@@ -8567,19 +8567,19 @@
         <v>30920</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22604</v>
+        <v>22212</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>42302</v>
+        <v>41733</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08017422154202357</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05861127352677562</v>
+        <v>0.05759521315213478</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1096879779274293</v>
+        <v>0.1082112575470825</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>60</v>
@@ -8588,19 +8588,19 @@
         <v>56895</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>43685</v>
+        <v>42901</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>74654</v>
+        <v>73877</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.07229977398652856</v>
+        <v>0.07229977398652858</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05551351768997327</v>
+        <v>0.05451668322718736</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0948675512216607</v>
+        <v>0.09387983043267918</v>
       </c>
     </row>
     <row r="20">
@@ -8617,19 +8617,19 @@
         <v>34964</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>24099</v>
+        <v>24281</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>49598</v>
+        <v>50758</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.08713249902548816</v>
+        <v>0.08713249902548813</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06005761394715727</v>
+        <v>0.0605099203905232</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1236028622064526</v>
+        <v>0.1264942975349549</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>42</v>
@@ -8638,19 +8638,19 @@
         <v>32176</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>24161</v>
+        <v>24305</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43212</v>
+        <v>43998</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.0834310907758673</v>
+        <v>0.08343109077586731</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06264860837754664</v>
+        <v>0.06302098724528934</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1120470054622169</v>
+        <v>0.1140861488457286</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>71</v>
@@ -8659,19 +8659,19 @@
         <v>67140</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>52616</v>
+        <v>52731</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>84479</v>
+        <v>85907</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.08531851479822079</v>
+        <v>0.08531851479822078</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06686181552562932</v>
+        <v>0.06700901930800444</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1073530424041902</v>
+        <v>0.1091668107486829</v>
       </c>
     </row>
     <row r="21">
@@ -8688,19 +8688,19 @@
         <v>107695</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>88380</v>
+        <v>89019</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>129056</v>
+        <v>128130</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2683844295695585</v>
+        <v>0.2683844295695586</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2202508032510407</v>
+        <v>0.221843614111724</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3216179325119712</v>
+        <v>0.3193102920068089</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>123</v>
@@ -8709,19 +8709,19 @@
         <v>87824</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>73742</v>
+        <v>74189</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>102660</v>
+        <v>103226</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2277243854792882</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1912113996719951</v>
+        <v>0.1923704000330613</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2661944797257948</v>
+        <v>0.267661173456502</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>214</v>
@@ -8730,19 +8730,19 @@
         <v>195519</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>171726</v>
+        <v>171914</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>222327</v>
+        <v>220613</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.248457776337697</v>
+        <v>0.2484577763376971</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2182223967586461</v>
+        <v>0.2184614813421671</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.28252473173001</v>
+        <v>0.2803473919013986</v>
       </c>
     </row>
     <row r="22">
@@ -8759,19 +8759,19 @@
         <v>71810</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>56554</v>
+        <v>56245</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>90559</v>
+        <v>90478</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1789565736559345</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1409375456579572</v>
+        <v>0.1401678753653495</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2256801421817361</v>
+        <v>0.2254780245571577</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>117</v>
@@ -8780,19 +8780,19 @@
         <v>92482</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>77300</v>
+        <v>77901</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>108244</v>
+        <v>110218</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2398026606080291</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2004360299793936</v>
+        <v>0.2019948186564445</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2806724764125378</v>
+        <v>0.2857930527635407</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>182</v>
@@ -8801,19 +8801,19 @@
         <v>164292</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>142448</v>
+        <v>140876</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>189323</v>
+        <v>187086</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2087759922605545</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1810171892279778</v>
+        <v>0.1790205249119171</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2405851725466979</v>
+        <v>0.2377424851524423</v>
       </c>
     </row>
     <row r="23">
@@ -8830,19 +8830,19 @@
         <v>73737</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>57152</v>
+        <v>58660</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>92527</v>
+        <v>90271</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1837576755770479</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1424275145148685</v>
+        <v>0.1461854306351587</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2305853203077946</v>
+        <v>0.2249635217060834</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>85</v>
@@ -8851,19 +8851,19 @@
         <v>63137</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>51169</v>
+        <v>51533</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>76421</v>
+        <v>76409</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1637136293374852</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1326792328775815</v>
+        <v>0.1336231023583681</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1981561672210068</v>
+        <v>0.198125055482259</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>153</v>
@@ -8872,19 +8872,19 @@
         <v>136874</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>116809</v>
+        <v>117485</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>158394</v>
+        <v>159743</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.1739344998349748</v>
+        <v>0.1739344998349749</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.148437012997049</v>
+        <v>0.149295360984649</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2012811294832675</v>
+        <v>0.2029952044924843</v>
       </c>
     </row>
     <row r="24">
@@ -8976,19 +8976,19 @@
         <v>203777</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>175853</v>
+        <v>173842</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>235977</v>
+        <v>232148</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1228820698528144</v>
+        <v>0.1228820698528145</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.106043180476135</v>
+        <v>0.1048306111764711</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1422988247987909</v>
+        <v>0.1399903383035584</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>204</v>
@@ -8997,19 +8997,19 @@
         <v>159507</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>140003</v>
+        <v>137714</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>181795</v>
+        <v>179649</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1295055773924835</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1136698957962218</v>
+        <v>0.111811149697118</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1476013692412768</v>
+        <v>0.1458586763020215</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>377</v>
@@ -9018,19 +9018,19 @@
         <v>363285</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>327847</v>
+        <v>327021</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>397411</v>
+        <v>401049</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1257049042275269</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1134426618466345</v>
+        <v>0.1131567757478804</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1375133076280772</v>
+        <v>0.1387720550159774</v>
       </c>
     </row>
     <row r="26">
@@ -9047,19 +9047,19 @@
         <v>92881</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>73355</v>
+        <v>71758</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>116249</v>
+        <v>116111</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05600895440512369</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04423467321681841</v>
+        <v>0.04327145614030586</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07010080809282757</v>
+        <v>0.07001749781208999</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>116</v>
@@ -9068,19 +9068,19 @@
         <v>89607</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>73701</v>
+        <v>73909</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>107879</v>
+        <v>105949</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07275274449167259</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05983875738937797</v>
+        <v>0.06000754016019998</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08758823436997383</v>
+        <v>0.08602118233447044</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>194</v>
@@ -9089,19 +9089,19 @@
         <v>182488</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>154756</v>
+        <v>156113</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>211238</v>
+        <v>210724</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06314489347308797</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05354917092677134</v>
+        <v>0.05401876662036847</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07309326607019946</v>
+        <v>0.07291535379537671</v>
       </c>
     </row>
     <row r="27">
@@ -9118,19 +9118,19 @@
         <v>170191</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>146025</v>
+        <v>141225</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>200075</v>
+        <v>196179</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1026288628600343</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08805588049860967</v>
+        <v>0.08516161272768703</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1206494463838438</v>
+        <v>0.1182998933001618</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>138</v>
@@ -9139,19 +9139,19 @@
         <v>104526</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>88248</v>
+        <v>88285</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>122966</v>
+        <v>121965</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.08486566101138864</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07164909655313732</v>
+        <v>0.07167933143936084</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.09983721001556661</v>
+        <v>0.09902484367811765</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>280</v>
@@ -9160,19 +9160,19 @@
         <v>274717</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>242354</v>
+        <v>243872</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>304658</v>
+        <v>308361</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.09505846658842101</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.08385989440029906</v>
+        <v>0.08438537093421029</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1054185028528508</v>
+        <v>0.1067000207367374</v>
       </c>
     </row>
     <row r="28">
@@ -9189,19 +9189,19 @@
         <v>492111</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>448945</v>
+        <v>450463</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>535765</v>
+        <v>532915</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2967534204915498</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2707233427809604</v>
+        <v>0.2716384244275665</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3230778065697243</v>
+        <v>0.3213591847446915</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>391</v>
@@ -9210,19 +9210,19 @@
         <v>286235</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>260458</v>
+        <v>260167</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>313706</v>
+        <v>312121</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2323969439520497</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2114684897802626</v>
+        <v>0.2112315870019817</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2547005185129594</v>
+        <v>0.2534139342403652</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>794</v>
@@ -9231,19 +9231,19 @@
         <v>778346</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>728422</v>
+        <v>730779</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>829793</v>
+        <v>831121</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2693257059274693</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2520508005869418</v>
+        <v>0.2528662216035404</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2871274806996167</v>
+        <v>0.2875869633961701</v>
       </c>
     </row>
     <row r="29">
@@ -9260,19 +9260,19 @@
         <v>446851</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>407719</v>
+        <v>406104</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>487106</v>
+        <v>488978</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2694603543551471</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2458633394313868</v>
+        <v>0.2448893119352444</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2937354342983469</v>
+        <v>0.2948637385173195</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>452</v>
@@ -9281,19 +9281,19 @@
         <v>356398</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>327075</v>
+        <v>328508</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>387225</v>
+        <v>385684</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.2893623675542979</v>
+        <v>0.2893623675542978</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2655548518764045</v>
+        <v>0.2667188980666145</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3143912129485414</v>
+        <v>0.3131401513407369</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>845</v>
@@ -9302,19 +9302,19 @@
         <v>803248</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>752066</v>
+        <v>757134</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>856366</v>
+        <v>857056</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2779422782675265</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2602322306845786</v>
+        <v>0.2619857553433204</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.296322108110255</v>
+        <v>0.2965611543066098</v>
       </c>
     </row>
     <row r="30">
@@ -9331,19 +9331,19 @@
         <v>252506</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>220080</v>
+        <v>223368</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>286359</v>
+        <v>285093</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1522663380353305</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1327126642517833</v>
+        <v>0.1346953777969398</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1726803834409177</v>
+        <v>0.1719169244162977</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>319</v>
@@ -9352,19 +9352,19 @@
         <v>235392</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>212093</v>
+        <v>210043</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>260917</v>
+        <v>259791</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1911167055981078</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1722005241423939</v>
+        <v>0.1705360439140571</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2118411614001704</v>
+        <v>0.2109264331032378</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>547</v>
@@ -9373,19 +9373,19 @@
         <v>487898</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>445952</v>
+        <v>444655</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>528732</v>
+        <v>527340</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1688237515159683</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1543097690492865</v>
+        <v>0.153860792860823</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1829534404935378</v>
+        <v>0.1824717930124809</v>
       </c>
     </row>
     <row r="31">
